--- a/Outputs/4. Prosumer percentage constrained/Output Files/25/Output_6_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/25/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2496647.915662776</v>
+        <v>2495935.613839732</v>
       </c>
     </row>
     <row r="7">
@@ -1212,67 +1212,67 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.817899082923868</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="D9" t="n">
+      <c r="S9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.817899082923868</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929898</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.3687304053803</v>
       </c>
       <c r="T11" t="n">
-        <v>42.17739580636665</v>
+        <v>44.31761724675137</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416382</v>
+        <v>146.8587795251722</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="12">
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>169.2610211045274</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>96.25684999496708</v>
       </c>
       <c r="S12" t="n">
         <v>13.44252716693643</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242239</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382072</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V12" t="n">
         <v>62.50065676233436</v>
@@ -1576,7 +1576,7 @@
         <v>25.28169700256623</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311269</v>
+        <v>57.28978021311268</v>
       </c>
       <c r="T13" t="n">
         <v>45.61329429725512</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.4979333192471</v>
+        <v>114.3554345392812</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554826</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240812</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929892</v>
+        <v>16.73328122929891</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538025</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>44.31761724675131</v>
@@ -1664,13 +1664,13 @@
         <v>72.00227733958181</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.7481996726989</v>
       </c>
       <c r="X14" t="n">
-        <v>128.868300567184</v>
+        <v>181.6344501416382</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>17.30703785876071</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
         <v>13.44252716693637</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242234</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U15" t="n">
         <v>59.07980534382067</v>
       </c>
       <c r="V15" t="n">
-        <v>62.5006567623343</v>
+        <v>146.5863780694895</v>
       </c>
       <c r="W15" t="n">
         <v>88.55631942394365</v>
@@ -1910,7 +1910,7 @@
         <v>62.33504336772165</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146522</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="18">
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192471</v>
+        <v>53.76534124702263</v>
       </c>
       <c r="V18" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.86076041915024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2090,10 +2090,10 @@
         <v>74.03124113465168</v>
       </c>
       <c r="F20" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130284</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H20" t="n">
         <v>49.57372768156608</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>36.18716192593561</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>166.0289796675928</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>105.751578713029</v>
       </c>
       <c r="G23" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H23" t="n">
-        <v>49.5737276815661</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>24.43972300435418</v>
       </c>
       <c r="C24" t="n">
-        <v>106.9796527999499</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2439,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2558,22 +2558,22 @@
         <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182262</v>
       </c>
       <c r="E26" t="n">
         <v>157.9941615376351</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160124</v>
       </c>
       <c r="G26" t="n">
         <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147505</v>
+        <v>27.52501869147501</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444717</v>
+        <v>14.03224403444714</v>
       </c>
       <c r="T26" t="n">
-        <v>8.98113087581824</v>
+        <v>8.981130875818209</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864874</v>
+        <v>36.66579096864871</v>
       </c>
       <c r="V26" t="n">
         <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.4117133017658</v>
       </c>
       <c r="X26" t="n">
         <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.8008168944488</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>112.1215243174148</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>11.73039443350255</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489255</v>
+        <v>1.486173081489234</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288759</v>
+        <v>23.74331897288756</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140123</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301057</v>
+        <v>53.21983305301055</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469588</v>
+        <v>3.82816391546956</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.8995356100246</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217955</v>
+        <v>21.95329384217952</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632199</v>
+        <v>10.27680792632196</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1718064445646</v>
+        <v>75.17180644456457</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044889</v>
+        <v>31.62426466044886</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533431</v>
+        <v>76.82595656533428</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241512</v>
+        <v>8.434704884241484</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167402</v>
+        <v>3.656522290167374</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147506</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>14.0322440344472</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818268</v>
+        <v>8.981130875818266</v>
       </c>
       <c r="U29" t="n">
         <v>36.66579096864876</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>68.60138496442907</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>52.53729035547582</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489284</v>
+        <v>1.486173081489291</v>
       </c>
       <c r="U30" t="n">
         <v>23.74331897288762</v>
@@ -2931,7 +2931,7 @@
         <v>27.16417039140126</v>
       </c>
       <c r="W30" t="n">
-        <v>53.2198330530106</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>3.828163915469617</v>
@@ -3047,7 +3047,7 @@
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461084</v>
+        <v>26.69730882461081</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>116.7389075619497</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>65.04276855772491</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3150,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250522</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602338</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
         <v>26.33646052453702</v>
@@ -3281,7 +3281,7 @@
         <v>146.7790047063798</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228186</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>80.16410009349659</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>105.1556054094181</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>146.7790047063798</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228186</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>105.1556054094181</v>
+        <v>11.29408204347217</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.14077227717371</v>
+        <v>9.140772277173706</v>
       </c>
       <c r="V41" t="n">
         <v>79.87001439367597</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3861,25 +3861,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>76.72643162335939</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>116.1408310647128</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153555</v>
+        <v>70.62775117087361</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>200.4961064656458</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
         <v>6.719070557086891</v>
@@ -4808,46 +4808,46 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="C9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="H9" t="n">
         <v>0.2559399712010781</v>
@@ -4887,46 +4887,46 @@
         <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="N9" t="n">
-        <v>6.462484272827225</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="O9" t="n">
-        <v>9.629741416440567</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.950635850029798</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
-        <v>9.950635850029798</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="S9" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="U9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="X9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.102302681225188</v>
       </c>
     </row>
     <row r="10">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.481787513264</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C11" t="n">
-        <v>205.481787513264</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D11" t="n">
-        <v>205.481787513264</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E11" t="n">
         <v>15.07983466553977</v>
@@ -5039,52 +5039,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021288</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4328134021288</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="L11" t="n">
-        <v>302.0457673881834</v>
+        <v>162.1536558828889</v>
       </c>
       <c r="M11" t="n">
-        <v>488.658721374238</v>
+        <v>330.6251572712823</v>
       </c>
       <c r="N11" t="n">
-        <v>563.9866145099304</v>
+        <v>405.9530504069746</v>
       </c>
       <c r="O11" t="n">
-        <v>598.2072492025981</v>
+        <v>592.5660043930293</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324988</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769883</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049691</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0894290049691</v>
+        <v>704.1243288271094</v>
       </c>
       <c r="T11" t="n">
-        <v>694.485998897528</v>
+        <v>659.3590588808959</v>
       </c>
       <c r="U11" t="n">
-        <v>694.485998897528</v>
+        <v>659.3590588808959</v>
       </c>
       <c r="V11" t="n">
-        <v>550.3127469216854</v>
+        <v>515.1858069050533</v>
       </c>
       <c r="W11" t="n">
-        <v>388.9509290704743</v>
+        <v>353.8239890538421</v>
       </c>
       <c r="X11" t="n">
-        <v>205.481787513264</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.481787513264</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>398.7673935891305</v>
+        <v>24.54436736382062</v>
       </c>
       <c r="C12" t="n">
-        <v>389.3028608908497</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D12" t="n">
-        <v>389.3028608908497</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E12" t="n">
-        <v>218.3321325024382</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F12" t="n">
-        <v>218.3321325024382</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G12" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H12" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I12" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142003</v>
+        <v>53.04316068142006</v>
       </c>
       <c r="L12" t="n">
         <v>170.3760798097941</v>
@@ -5130,40 +5130,40 @@
         <v>352.0527264137995</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998541</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188884</v>
+        <v>670.3666200188887</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769883</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596538</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596538</v>
+        <v>656.762591867931</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4745786900211</v>
+        <v>643.1842815982982</v>
       </c>
       <c r="T12" t="n">
-        <v>696.2799731825237</v>
+        <v>452.7823287505738</v>
       </c>
       <c r="U12" t="n">
-        <v>636.6034021281594</v>
+        <v>262.3803759028494</v>
       </c>
       <c r="V12" t="n">
-        <v>573.4714256005489</v>
+        <v>199.2483993752389</v>
       </c>
       <c r="W12" t="n">
-        <v>484.0205978995956</v>
+        <v>109.7975716742857</v>
       </c>
       <c r="X12" t="n">
-        <v>444.4603450850474</v>
+        <v>70.23731885973751</v>
       </c>
       <c r="Y12" t="n">
-        <v>398.7673935891305</v>
+        <v>24.54436736382062</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.60586471875856</v>
+        <v>15.60586471875857</v>
       </c>
       <c r="C13" t="n">
-        <v>15.60586471875856</v>
+        <v>15.60586471875857</v>
       </c>
       <c r="D13" t="n">
-        <v>15.60586471875856</v>
+        <v>48.24182248209218</v>
       </c>
       <c r="E13" t="n">
-        <v>15.60586471875856</v>
+        <v>84.34922419352664</v>
       </c>
       <c r="F13" t="n">
-        <v>54.43503283403358</v>
+        <v>123.1783923088017</v>
       </c>
       <c r="G13" t="n">
-        <v>54.43503283403358</v>
+        <v>132.5314066424579</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63566066745089</v>
+        <v>144.7320344758752</v>
       </c>
       <c r="I13" t="n">
-        <v>66.63566066745089</v>
+        <v>157.894377600127</v>
       </c>
       <c r="J13" t="n">
-        <v>123.9652306719082</v>
+        <v>215.2239476045844</v>
       </c>
       <c r="K13" t="n">
-        <v>233.9723318456473</v>
+        <v>257.7072091165365</v>
       </c>
       <c r="L13" t="n">
-        <v>378.5088152714874</v>
+        <v>402.2436925423767</v>
       </c>
       <c r="M13" t="n">
-        <v>520.7166611426675</v>
+        <v>402.2436925423767</v>
       </c>
       <c r="N13" t="n">
-        <v>520.7166611426675</v>
+        <v>402.2436925423767</v>
       </c>
       <c r="O13" t="n">
-        <v>520.7166611426675</v>
+        <v>402.2436925423767</v>
       </c>
       <c r="P13" t="n">
         <v>520.7166611426675</v>
@@ -5236,7 +5236,7 @@
         <v>211.9754335064919</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117125</v>
+        <v>98.68003660117127</v>
       </c>
       <c r="X13" t="n">
         <v>54.46671210099485</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>439.557180965679</v>
+        <v>130.5903746042074</v>
       </c>
       <c r="C14" t="n">
-        <v>439.557180965679</v>
+        <v>130.5903746042074</v>
       </c>
       <c r="D14" t="n">
-        <v>439.557180965679</v>
+        <v>130.5903746042074</v>
       </c>
       <c r="E14" t="n">
-        <v>439.557180965679</v>
+        <v>130.5903746042074</v>
       </c>
       <c r="F14" t="n">
-        <v>439.557180965679</v>
+        <v>130.5903746042074</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1552281179547</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554797</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
@@ -5279,49 +5279,49 @@
         <v>115.4328134021289</v>
       </c>
       <c r="K14" t="n">
-        <v>267.8825731524724</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="L14" t="n">
-        <v>314.6034156332324</v>
+        <v>162.153655882889</v>
       </c>
       <c r="M14" t="n">
-        <v>395.4653147201797</v>
+        <v>243.0155549698362</v>
       </c>
       <c r="N14" t="n">
-        <v>470.793207855872</v>
+        <v>318.400888562485</v>
       </c>
       <c r="O14" t="n">
-        <v>505.0138425485396</v>
+        <v>505.0138425485397</v>
       </c>
       <c r="P14" t="n">
-        <v>666.439571432499</v>
+        <v>666.4395714324991</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049694</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="S14" t="n">
-        <v>687.2220245550903</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="T14" t="n">
-        <v>642.4567546088768</v>
+        <v>692.324159058756</v>
       </c>
       <c r="U14" t="n">
-        <v>569.7271815385922</v>
+        <v>619.5945859884713</v>
       </c>
       <c r="V14" t="n">
-        <v>569.7271815385922</v>
+        <v>475.4213340126287</v>
       </c>
       <c r="W14" t="n">
-        <v>569.7271815385922</v>
+        <v>314.0595161614177</v>
       </c>
       <c r="X14" t="n">
-        <v>439.557180965679</v>
+        <v>130.5903746042074</v>
       </c>
       <c r="Y14" t="n">
-        <v>439.557180965679</v>
+        <v>130.5903746042074</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>405.7062379064655</v>
+        <v>24.54436736382056</v>
       </c>
       <c r="C15" t="n">
-        <v>396.2417052081847</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D15" t="n">
-        <v>396.2417052081847</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E15" t="n">
-        <v>396.2417052081847</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F15" t="n">
-        <v>235.8139889254288</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G15" t="n">
-        <v>85.56691369853303</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H15" t="n">
-        <v>85.56691369853303</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142012</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769884</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769884</v>
+        <v>610.972282102</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073557</v>
+        <v>597.3939718323674</v>
       </c>
       <c r="T15" t="n">
-        <v>703.2188174998585</v>
+        <v>406.992018984643</v>
       </c>
       <c r="U15" t="n">
-        <v>643.5422464454941</v>
+        <v>347.3154479302787</v>
       </c>
       <c r="V15" t="n">
-        <v>580.4102699178837</v>
+        <v>199.2483993752387</v>
       </c>
       <c r="W15" t="n">
-        <v>490.9594422169305</v>
+        <v>109.7975716742855</v>
       </c>
       <c r="X15" t="n">
-        <v>451.3991894023824</v>
+        <v>70.2373188597374</v>
       </c>
       <c r="Y15" t="n">
-        <v>405.7062379064655</v>
+        <v>24.54436736382056</v>
       </c>
     </row>
     <row r="16">
@@ -5416,46 +5416,46 @@
         <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887343</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887343</v>
       </c>
       <c r="F16" t="n">
-        <v>53.90900278081484</v>
+        <v>47.71579242887343</v>
       </c>
       <c r="G16" t="n">
-        <v>53.90900278081484</v>
+        <v>57.06880676252975</v>
       </c>
       <c r="H16" t="n">
-        <v>53.90900278081484</v>
+        <v>69.2694345959471</v>
       </c>
       <c r="I16" t="n">
-        <v>67.07134590506672</v>
+        <v>69.2694345959471</v>
       </c>
       <c r="J16" t="n">
-        <v>114.7709917764551</v>
+        <v>69.2694345959471</v>
       </c>
       <c r="K16" t="n">
-        <v>224.7780929501943</v>
+        <v>69.2694345959471</v>
       </c>
       <c r="L16" t="n">
-        <v>369.3145763760344</v>
+        <v>213.8059180217873</v>
       </c>
       <c r="M16" t="n">
-        <v>520.7166611426671</v>
+        <v>213.8059180217873</v>
       </c>
       <c r="N16" t="n">
-        <v>520.7166611426671</v>
+        <v>331.0320093814438</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426671</v>
+        <v>470.2946957351821</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426671</v>
+        <v>470.2946957351821</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426671</v>
+        <v>520.716661142667</v>
       </c>
       <c r="R16" t="n">
         <v>495.1795934633073</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C17" t="n">
         <v>410.1015905040791</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210056</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718625</v>
+        <v>294.5907522718623</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116209</v>
+        <v>65.15430707116211</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993309</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J17" t="n">
-        <v>257.5663113459877</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K17" t="n">
-        <v>444.1792653320424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L17" t="n">
-        <v>490.9001078128024</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="M17" t="n">
-        <v>571.7620068997496</v>
+        <v>282.5546877385417</v>
       </c>
       <c r="N17" t="n">
-        <v>647.0899000354419</v>
+        <v>357.8825808742341</v>
       </c>
       <c r="O17" t="n">
-        <v>681.3105347281096</v>
+        <v>392.1032155669018</v>
       </c>
       <c r="P17" t="n">
-        <v>753.9917332769884</v>
+        <v>578.7161695529564</v>
       </c>
       <c r="Q17" t="n">
-        <v>753.9917332769884</v>
+        <v>578.7161695529564</v>
       </c>
       <c r="R17" t="n">
-        <v>753.9917332769884</v>
+        <v>680.2566338421279</v>
       </c>
       <c r="S17" t="n">
-        <v>753.9917332769884</v>
+        <v>680.2566338421279</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530778</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122036</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>350.0961503904788</v>
+        <v>175.859950904508</v>
       </c>
       <c r="C18" t="n">
-        <v>350.0961503904788</v>
+        <v>175.859950904508</v>
       </c>
       <c r="D18" t="n">
-        <v>350.0961503904788</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I18" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.0431606814201</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769884</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769884</v>
+        <v>610.9722821019999</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9917332769884</v>
+        <v>610.9722821019999</v>
       </c>
       <c r="T18" t="n">
-        <v>753.9917332769884</v>
+        <v>610.9722821019999</v>
       </c>
       <c r="U18" t="n">
-        <v>563.589780429264</v>
+        <v>556.6638565999568</v>
       </c>
       <c r="V18" t="n">
-        <v>373.1878275815396</v>
+        <v>556.6638565999568</v>
       </c>
       <c r="W18" t="n">
-        <v>373.1878275815396</v>
+        <v>366.2619037522325</v>
       </c>
       <c r="X18" t="n">
-        <v>373.1878275815396</v>
+        <v>175.859950904508</v>
       </c>
       <c r="Y18" t="n">
-        <v>350.0961503904788</v>
+        <v>175.859950904508</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C20" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040789</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210055</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718624</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116208</v>
@@ -5747,55 +5747,55 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993309</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95335735993309</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95335735993309</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6741998406931</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="M20" t="n">
-        <v>198.5360989276404</v>
+        <v>288.1543390723504</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8639920633327</v>
+        <v>474.767293058405</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0846267560003</v>
+        <v>508.9879277510727</v>
       </c>
       <c r="P20" t="n">
-        <v>308.0846267560003</v>
+        <v>508.9879277510727</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110811</v>
+        <v>508.9879277510727</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002526</v>
+        <v>610.5283920402442</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051035</v>
+        <v>679.7597616450951</v>
       </c>
       <c r="T20" t="n">
-        <v>707.167575136997</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W20" t="n">
         <v>689.4655660235037</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530776</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122034</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>51.63252347961614</v>
+      </c>
+      <c r="C21" t="n">
+        <v>51.63252347961614</v>
+      </c>
+      <c r="D21" t="n">
+        <v>51.63252347961614</v>
+      </c>
+      <c r="E21" t="n">
+        <v>51.63252347961614</v>
+      </c>
+      <c r="F21" t="n">
+        <v>51.63252347961614</v>
+      </c>
+      <c r="G21" t="n">
+        <v>51.63252347961614</v>
+      </c>
+      <c r="H21" t="n">
+        <v>51.63252347961614</v>
+      </c>
+      <c r="I21" t="n">
+        <v>51.63252347961614</v>
+      </c>
+      <c r="J21" t="n">
         <v>15.07983466553977</v>
-      </c>
-      <c r="C21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="D21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="G21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="J21" t="n">
-        <v>15.07983466553975</v>
       </c>
       <c r="K21" t="n">
         <v>53.04316068142009</v>
@@ -5838,43 +5838,43 @@
         <v>170.3760798097942</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188887</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9917332769884</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9917332769884</v>
+        <v>610.972282102</v>
       </c>
       <c r="S21" t="n">
-        <v>563.589780429264</v>
+        <v>610.972282102</v>
       </c>
       <c r="T21" t="n">
-        <v>373.1878275815396</v>
+        <v>610.972282102</v>
       </c>
       <c r="U21" t="n">
-        <v>182.7858747338153</v>
+        <v>610.972282102</v>
       </c>
       <c r="V21" t="n">
-        <v>15.07983466553977</v>
+        <v>420.5703292542756</v>
       </c>
       <c r="W21" t="n">
-        <v>15.07983466553977</v>
+        <v>420.5703292542756</v>
       </c>
       <c r="X21" t="n">
-        <v>15.07983466553977</v>
+        <v>230.1683764065512</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.07983466553977</v>
+        <v>230.1683764065512</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C23" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040789</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E23" t="n">
         <v>294.5907522718622</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116209</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553977</v>
+        <v>32.24617939921828</v>
       </c>
       <c r="J23" t="n">
-        <v>15.07983466553977</v>
+        <v>32.24617939921828</v>
       </c>
       <c r="K23" t="n">
-        <v>15.07983466553977</v>
+        <v>32.24617939921828</v>
       </c>
       <c r="L23" t="n">
-        <v>61.80067714629982</v>
+        <v>218.859133385273</v>
       </c>
       <c r="M23" t="n">
-        <v>142.662576233247</v>
+        <v>299.7210324722203</v>
       </c>
       <c r="N23" t="n">
-        <v>217.9904693689393</v>
+        <v>486.333986458275</v>
       </c>
       <c r="O23" t="n">
-        <v>252.211104061607</v>
+        <v>520.5546211509427</v>
       </c>
       <c r="P23" t="n">
-        <v>391.6063433698688</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="Q23" t="n">
-        <v>578.2192973559235</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="R23" t="n">
-        <v>679.7597616450948</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="S23" t="n">
-        <v>679.7597616450948</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769884</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879303</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235036</v>
       </c>
       <c r="X23" t="n">
         <v>626.5008757530776</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122034</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>617.9111264193342</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C24" t="n">
-        <v>509.8508710658494</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D24" t="n">
-        <v>349.0707548268812</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E24" t="n">
-        <v>175.5075509482957</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.0431606814201</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188885</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769884</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="R24" t="n">
-        <v>617.9111264193342</v>
+        <v>610.9722821020002</v>
       </c>
       <c r="S24" t="n">
-        <v>617.9111264193342</v>
+        <v>420.5703292542757</v>
       </c>
       <c r="T24" t="n">
-        <v>617.9111264193342</v>
+        <v>420.5703292542757</v>
       </c>
       <c r="U24" t="n">
-        <v>617.9111264193342</v>
+        <v>230.1683764065513</v>
       </c>
       <c r="V24" t="n">
-        <v>617.9111264193342</v>
+        <v>230.1683764065513</v>
       </c>
       <c r="W24" t="n">
-        <v>617.9111264193342</v>
+        <v>230.1683764065513</v>
       </c>
       <c r="X24" t="n">
-        <v>617.9111264193342</v>
+        <v>39.76642355882683</v>
       </c>
       <c r="Y24" t="n">
-        <v>617.9111264193342</v>
+        <v>39.76642355882683</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874105</v>
+        <v>882.7966579874111</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942526</v>
+        <v>757.2538204942532</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350252</v>
+        <v>597.6637583350258</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471339</v>
+        <v>406.0329511471344</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141566</v>
+        <v>198.6052517141571</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845018</v>
+        <v>63.71974859845049</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528776</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523987</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581069</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
         <v>1458.473663923989</v>
@@ -6245,25 +6245,25 @@
         <v>1654.882514315172</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.58913751441</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020825</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
         <v>1353.629035366662</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>559.3198938435198</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C27" t="n">
-        <v>369.9076195764835</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9076195764835</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E27" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K27" t="n">
-        <v>73.8800254310224</v>
+        <v>73.88002543102243</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593965</v>
@@ -6315,40 +6315,40 @@
         <v>372.8895911634019</v>
       </c>
       <c r="N27" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512952</v>
+        <v>781.2717371851311</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512952</v>
+        <v>587.7456853467429</v>
       </c>
       <c r="T27" t="n">
-        <v>791.619435520498</v>
+        <v>586.2445004159457</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428337</v>
+        <v>562.2613499382815</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1977290919234</v>
+        <v>319.1816318419155</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4403219676703</v>
+        <v>265.4242247176625</v>
       </c>
       <c r="X27" t="n">
-        <v>682.5734897298223</v>
+        <v>261.5573924798144</v>
       </c>
       <c r="Y27" t="n">
-        <v>672.5739588106055</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E28" t="n">
-        <v>107.0072226338003</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F28" t="n">
-        <v>122.6577211551415</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G28" t="n">
-        <v>122.6577211551415</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H28" t="n">
-        <v>122.6577211551415</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I28" t="n">
-        <v>170.8031857866171</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J28" t="n">
-        <v>170.8031857866171</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K28" t="n">
-        <v>170.8031857866171</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="L28" t="n">
-        <v>170.8031857866171</v>
+        <v>215.436304348206</v>
       </c>
       <c r="M28" t="n">
-        <v>170.8031857866171</v>
+        <v>215.436304348206</v>
       </c>
       <c r="N28" t="n">
-        <v>170.8031857866171</v>
+        <v>215.436304348206</v>
       </c>
       <c r="O28" t="n">
-        <v>170.8031857866171</v>
+        <v>215.436304348206</v>
       </c>
       <c r="P28" t="n">
-        <v>170.8031857866171</v>
+        <v>215.436304348206</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.2082727013258</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="R28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909792</v>
+        <v>243.987469890979</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239872</v>
+        <v>233.6068558239871</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032149</v>
+        <v>157.6757382032148</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259938</v>
+        <v>125.7320365259937</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737328</v>
+        <v>48.13006019737324</v>
       </c>
       <c r="X28" t="n">
         <v>39.610156273897</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874112</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D29" t="n">
         <v>757.253820494253</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350256</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471342</v>
+        <v>406.0329511471341</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141569</v>
+        <v>198.6052517141568</v>
       </c>
       <c r="H29" t="n">
         <v>63.71974859845022</v>
@@ -6461,16 +6461,16 @@
         <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589548</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528778</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523988</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581069</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N29" t="n">
         <v>1212.90312621256</v>
@@ -6494,16 +6494,16 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
         <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.123159715704</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>278.3969437382145</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C30" t="n">
-        <v>88.98466947117825</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D30" t="n">
         <v>35.91669941514207</v>
@@ -6543,7 +6543,7 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.8800254310224</v>
+        <v>73.88002543102243</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593965</v>
@@ -6552,40 +6552,40 @@
         <v>372.8895911634019</v>
       </c>
       <c r="N30" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512952</v>
+        <v>657.0400135936411</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512952</v>
+        <v>657.0400135936411</v>
       </c>
       <c r="T30" t="n">
-        <v>791.6194355204979</v>
+        <v>655.5388286628438</v>
       </c>
       <c r="U30" t="n">
-        <v>767.6362850428336</v>
+        <v>631.5556781851795</v>
       </c>
       <c r="V30" t="n">
-        <v>740.1977290919233</v>
+        <v>604.1171222342692</v>
       </c>
       <c r="W30" t="n">
-        <v>686.4403219676701</v>
+        <v>334.7185529645606</v>
       </c>
       <c r="X30" t="n">
-        <v>682.573489729822</v>
+        <v>330.8517207267125</v>
       </c>
       <c r="Y30" t="n">
-        <v>456.9327966651496</v>
+        <v>105.2110276620401</v>
       </c>
     </row>
     <row r="31">
@@ -6631,10 +6631,10 @@
         <v>35.91669941514207</v>
       </c>
       <c r="N31" t="n">
-        <v>91.91670631504724</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760092</v>
+        <v>112.7064240684946</v>
       </c>
       <c r="P31" t="n">
         <v>266.1625141760092</v>
@@ -6677,46 +6677,46 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806688</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601012</v>
+        <v>752.8175276601005</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734639</v>
+        <v>594.0635360734632</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581625</v>
+        <v>403.2687994581616</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977753</v>
+        <v>196.6771705977744</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465901</v>
+        <v>62.62773805465899</v>
       </c>
       <c r="I32" t="n">
         <v>35.66075944394099</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559494</v>
+        <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
         <v>377.325708018068</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857846</v>
+        <v>636.2158862857847</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570754</v>
+        <v>929.2471211596885</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579724</v>
+        <v>1216.744350082337</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059349</v>
+        <v>1463.134320561962</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218727</v>
+        <v>1660.36260372134</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
@@ -6725,7 +6725,7 @@
         <v>1783.037972197049</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.70005889646</v>
+        <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
         <v>1761.464280099537</v>
@@ -6734,16 +6734,16 @@
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351991</v>
+        <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.84846024215</v>
+        <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>559.4163538285311</v>
+        <v>101.3605256638651</v>
       </c>
       <c r="C33" t="n">
-        <v>370.0040795614948</v>
+        <v>101.3605256638651</v>
       </c>
       <c r="D33" t="n">
-        <v>209.2239633225265</v>
+        <v>101.3605256638651</v>
       </c>
       <c r="E33" t="n">
         <v>35.66075944394099</v>
@@ -6780,7 +6780,7 @@
         <v>35.66075944394099</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982133</v>
+        <v>73.62408545982134</v>
       </c>
       <c r="L33" t="n">
         <v>190.9570045881954</v>
@@ -6789,40 +6789,40 @@
         <v>372.6336511922008</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029599</v>
+        <v>577.53862760296</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219942</v>
+        <v>709.2395672219943</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800941</v>
+        <v>792.8646804800942</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800941</v>
+        <v>785.9258361627598</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800941</v>
+        <v>649.8452293051056</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800941</v>
+        <v>649.8452293051056</v>
       </c>
       <c r="T33" t="n">
-        <v>792.199566121887</v>
+        <v>432.7028822288528</v>
       </c>
       <c r="U33" t="n">
-        <v>769.0524862168128</v>
+        <v>193.078569605733</v>
       </c>
       <c r="V33" t="n">
-        <v>742.4500008384925</v>
+        <v>166.4760842274127</v>
       </c>
       <c r="W33" t="n">
-        <v>689.5286642868296</v>
+        <v>113.5547476757498</v>
       </c>
       <c r="X33" t="n">
-        <v>686.4979026215716</v>
+        <v>110.5239860104918</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.334442274945</v>
+        <v>101.3605256638651</v>
       </c>
     </row>
     <row r="34">
@@ -6835,49 +6835,49 @@
         <v>35.66075944394099</v>
       </c>
       <c r="C34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541766</v>
       </c>
       <c r="D34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541766</v>
       </c>
       <c r="E34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541766</v>
       </c>
       <c r="F34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541766</v>
       </c>
       <c r="G34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541766</v>
       </c>
       <c r="H34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541766</v>
       </c>
       <c r="I34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541766</v>
       </c>
       <c r="J34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541766</v>
       </c>
       <c r="K34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541766</v>
       </c>
       <c r="L34" t="n">
-        <v>35.66075944394099</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="M34" t="n">
-        <v>35.66075944394099</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="N34" t="n">
-        <v>35.66075944394099</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="O34" t="n">
-        <v>35.66075944394099</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="P34" t="n">
-        <v>163.0558862708941</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="Q34" t="n">
-        <v>249.2804059537984</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="R34" t="n">
         <v>260.0540801966771</v>
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361105</v>
+        <v>623.0190675361092</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513528</v>
+        <v>544.0833815513515</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756371</v>
+        <v>477.7066225756359</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338518</v>
+        <v>377.2826389338506</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786681</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L35" t="n">
-        <v>275.3043328938734</v>
+        <v>278.6930660259306</v>
       </c>
       <c r="M35" t="n">
-        <v>356.1662319808206</v>
+        <v>536.5492673022591</v>
       </c>
       <c r="N35" t="n">
-        <v>431.4941251165129</v>
+        <v>611.8771604379514</v>
       </c>
       <c r="O35" t="n">
-        <v>689.3503263928413</v>
+        <v>646.0977951306191</v>
       </c>
       <c r="P35" t="n">
-        <v>943.7478503389694</v>
+        <v>850.5537443902417</v>
       </c>
       <c r="Q35" t="n">
-        <v>943.7478503389694</v>
+        <v>850.5537443902417</v>
       </c>
       <c r="R35" t="n">
-        <v>1020.153696984132</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="S35" t="n">
-        <v>1020.153696984132</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="T35" t="n">
         <v>1020.153696984132</v>
@@ -6971,16 +6971,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984149</v>
+        <v>992.5294845984138</v>
       </c>
       <c r="W35" t="n">
-        <v>926.027165841346</v>
+        <v>926.0271658413449</v>
       </c>
       <c r="X35" t="n">
-        <v>837.417523378278</v>
+        <v>837.4175233782768</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447616</v>
+        <v>726.0777262447604</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C36" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D36" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E36" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F36" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G36" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H36" t="n">
-        <v>182.2899765959558</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I36" t="n">
-        <v>73.84208735960495</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548264</v>
+        <v>58.80019076548265</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938567</v>
@@ -7029,37 +7029,37 @@
         <v>562.7147329086213</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276556</v>
+        <v>694.4156725276557</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.101941468421</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="R36" t="n">
-        <v>635.0213346107669</v>
+        <v>697.0669473074762</v>
       </c>
       <c r="S36" t="n">
-        <v>635.0213346107669</v>
+        <v>503.540895469088</v>
       </c>
       <c r="T36" t="n">
-        <v>635.0213346107669</v>
+        <v>503.540895469088</v>
       </c>
       <c r="U36" t="n">
-        <v>635.0213346107669</v>
+        <v>263.9165828459682</v>
       </c>
       <c r="V36" t="n">
-        <v>528.8035513689304</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="W36" t="n">
-        <v>528.8035513689304</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X36" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y36" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="K37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="L37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361105</v>
+        <v>623.0190675361098</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513528</v>
+        <v>544.0833815513521</v>
       </c>
       <c r="D38" t="n">
-        <v>477.706622575637</v>
+        <v>477.7066225756363</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338517</v>
+        <v>377.282638933851</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634024</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786684</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>20.8368647496023</v>
+        <v>51.57576979998703</v>
       </c>
       <c r="J38" t="n">
-        <v>20.8368647496023</v>
+        <v>244.900543598745</v>
       </c>
       <c r="K38" t="n">
-        <v>278.6930660259308</v>
+        <v>244.900543598745</v>
       </c>
       <c r="L38" t="n">
-        <v>325.4139085066908</v>
+        <v>291.621386079505</v>
       </c>
       <c r="M38" t="n">
-        <v>406.275807593638</v>
+        <v>372.4832851664523</v>
       </c>
       <c r="N38" t="n">
-        <v>481.6037007293303</v>
+        <v>630.3394864427806</v>
       </c>
       <c r="O38" t="n">
-        <v>606.9217566273287</v>
+        <v>664.5601211354484</v>
       </c>
       <c r="P38" t="n">
-        <v>861.3192805734568</v>
+        <v>899.6510983781266</v>
       </c>
       <c r="Q38" t="n">
-        <v>1041.843237480115</v>
+        <v>899.6510983781266</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.843237480115</v>
+        <v>976.0569450232895</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984147</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413458</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782777</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447614</v>
+        <v>726.0777262447609</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C39" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D39" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E39" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F39" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>182.2899765959558</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
-        <v>73.84208735960495</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548264</v>
+        <v>58.80019076548265</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938567</v>
@@ -7266,37 +7266,37 @@
         <v>562.7147329086213</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276556</v>
+        <v>694.4156725276557</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.101941468421</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="R39" t="n">
-        <v>635.0213346107669</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="S39" t="n">
-        <v>635.0213346107669</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="T39" t="n">
-        <v>528.8035513689304</v>
+        <v>766.6326221054807</v>
       </c>
       <c r="U39" t="n">
-        <v>528.8035513689304</v>
+        <v>527.0083094823608</v>
       </c>
       <c r="V39" t="n">
-        <v>528.8035513689304</v>
+        <v>283.9285913859949</v>
       </c>
       <c r="W39" t="n">
-        <v>528.8035513689304</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X39" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y39" t="n">
-        <v>309.2955569856267</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753172</v>
+        <v>818.4263542753163</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564255</v>
+        <v>708.1276389564246</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465757</v>
+        <v>610.3878506465749</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706563</v>
+        <v>478.6008376706554</v>
       </c>
       <c r="F41" t="n">
-        <v>314.773079666073</v>
+        <v>314.7730796660722</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323785</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308618</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349432</v>
+        <v>237.3726867131386</v>
       </c>
       <c r="M41" t="n">
-        <v>842.9233381771562</v>
+        <v>365.7239951305127</v>
       </c>
       <c r="N41" t="n">
-        <v>918.2512313128485</v>
+        <v>679.6515597895263</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055162</v>
+        <v>952.4718660055153</v>
       </c>
       <c r="P41" t="n">
         <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757533</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262769</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181023</v>
+        <v>952.8480423181014</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K42" t="n">
         <v>66.02930149988572</v>
@@ -7497,43 +7497,43 @@
         <v>183.3622206282598</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322651</v>
+        <v>365.0388672322652</v>
       </c>
       <c r="N42" t="n">
         <v>569.9438436430244</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620588</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.3310522028241</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="R42" t="n">
-        <v>778.3310522028241</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="S42" t="n">
-        <v>778.3310522028241</v>
+        <v>591.7438446817705</v>
       </c>
       <c r="T42" t="n">
-        <v>778.3310522028241</v>
+        <v>374.6014976055177</v>
       </c>
       <c r="U42" t="n">
-        <v>538.7067395797043</v>
+        <v>297.1000515213163</v>
       </c>
       <c r="V42" t="n">
-        <v>295.6270214833384</v>
+        <v>54.02033342495037</v>
       </c>
       <c r="W42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400538</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400538</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400538</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400538</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06597548400538</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06597548400538</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06597548400538</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06597548400538</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06597548400538</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145149</v>
       </c>
       <c r="R43" t="n">
         <v>130.133623560695</v>
@@ -7606,13 +7606,13 @@
         <v>77.86490262931778</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="44">
@@ -7622,67 +7622,67 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753174</v>
+        <v>818.426354275317</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564257</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
-        <v>610.387850646576</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706568</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660735</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6518442323785</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5915955308618</v>
+        <v>260.0057267824887</v>
       </c>
       <c r="L44" t="n">
-        <v>707.9121095349432</v>
+        <v>306.7265692632488</v>
       </c>
       <c r="M44" t="n">
-        <v>788.7740086218904</v>
+        <v>626.1881398735173</v>
       </c>
       <c r="N44" t="n">
-        <v>864.1019017575827</v>
+        <v>847.7950605833005</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055162</v>
+        <v>1120.615366799289</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901259</v>
+        <v>1344.273985695033</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757533</v>
+        <v>1344.273985695033</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.582478352311</v>
+        <v>1389.940927289811</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262769</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U44" t="n">
         <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
         <v>1215.523540582955</v>
@@ -7691,7 +7691,7 @@
         <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181027</v>
+        <v>952.8480423181021</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>378.2583659900099</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C45" t="n">
-        <v>188.8460917229736</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
         <v>66.02930149988572</v>
@@ -7734,43 +7734,43 @@
         <v>183.3622206282598</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322651</v>
+        <v>365.0388672322652</v>
       </c>
       <c r="N45" t="n">
         <v>569.9438436430244</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620588</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201586</v>
+        <v>568.1275494439059</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2698965201586</v>
+        <v>568.1275494439059</v>
       </c>
       <c r="V45" t="n">
-        <v>785.2698965201586</v>
+        <v>325.04783134754</v>
       </c>
       <c r="W45" t="n">
-        <v>759.3155385792136</v>
+        <v>253.7066685486777</v>
       </c>
       <c r="X45" t="n">
-        <v>759.3155385792136</v>
+        <v>253.7066685486777</v>
       </c>
       <c r="Y45" t="n">
-        <v>556.7942189169451</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="M46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="N46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="O46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="P46" t="n">
-        <v>92.92961358145149</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Q46" t="n">
-        <v>92.92961358145149</v>
+        <v>75.85388492394998</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="S46" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="T46" t="n">
         <v>130.133623560695</v>
@@ -7843,13 +7843,13 @@
         <v>77.86490262931778</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X46" t="n">
-        <v>46.96538615316656</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.59519759046111</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
   </sheetData>
@@ -8535,19 +8535,19 @@
         <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>177.037405250518</v>
       </c>
       <c r="P9" t="n">
-        <v>166.6480266854964</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -9021,7 +9021,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9723,10 +9723,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813100002</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23264,7 +23264,7 @@
         <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
-        <v>4.832714589321199</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F11" t="n">
         <v>225.0509854869456</v>
@@ -23276,7 +23276,7 @@
         <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240818</v>
+        <v>62.86150506240817</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929896</v>
       </c>
       <c r="S11" t="n">
-        <v>49.3687304053803</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.140221440384716</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>72.00227733958187</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>34.77567061646607</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.137303265382</v>
+        <v>15.63936994613485</v>
       </c>
     </row>
     <row r="12">
@@ -23507,13 +23507,13 @@
         <v>225.0509854869455</v>
       </c>
       <c r="G14" t="n">
-        <v>52.1919754903335</v>
+        <v>126.3344742702994</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554826</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240811</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538023</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726989</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>52.76614957445424</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>204.1373032653819</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>771690.4957794021</v>
+        <v>771690.4957794023</v>
       </c>
       <c r="C2" t="n">
         <v>771690.4957794021</v>
       </c>
       <c r="D2" t="n">
-        <v>772136.1512542561</v>
+        <v>772136.151254256</v>
       </c>
       <c r="E2" t="n">
+        <v>664768.5001554925</v>
+      </c>
+      <c r="F2" t="n">
         <v>664768.5001554923</v>
-      </c>
-      <c r="F2" t="n">
-        <v>664768.5001554925</v>
       </c>
       <c r="G2" t="n">
         <v>773253.730251218</v>
       </c>
       <c r="H2" t="n">
-        <v>773253.7302512184</v>
+        <v>773253.7302512181</v>
       </c>
       <c r="I2" t="n">
-        <v>773253.7302512182</v>
+        <v>773253.7302512178</v>
       </c>
       <c r="J2" t="n">
-        <v>773253.7302512197</v>
+        <v>773253.7302512195</v>
       </c>
       <c r="K2" t="n">
-        <v>773253.7302512184</v>
+        <v>773253.7302512187</v>
       </c>
       <c r="L2" t="n">
-        <v>773253.7302512191</v>
+        <v>773253.7302512192</v>
       </c>
       <c r="M2" t="n">
-        <v>773253.7302512184</v>
+        <v>773253.7302512183</v>
       </c>
       <c r="N2" t="n">
-        <v>773253.7302512184</v>
+        <v>773253.7302512183</v>
       </c>
       <c r="O2" t="n">
         <v>773253.7302512185</v>
@@ -26372,10 +26372,10 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787141</v>
+        <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>95439.52541913322</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068793</v>
+        <v>143496.2830068794</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924383</v>
+        <v>72254.91485924384</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,19 +26433,19 @@
         <v>370579.9058584693</v>
       </c>
       <c r="H4" t="n">
-        <v>370579.9058584693</v>
+        <v>370579.9058584692</v>
       </c>
       <c r="I4" t="n">
         <v>370579.9058584693</v>
       </c>
       <c r="J4" t="n">
-        <v>371380.7731393983</v>
+        <v>371380.7731393982</v>
       </c>
       <c r="K4" t="n">
         <v>371380.7731393982</v>
       </c>
       <c r="L4" t="n">
-        <v>371365.9831720196</v>
+        <v>371365.9831720195</v>
       </c>
       <c r="M4" t="n">
         <v>370556.0457987011</v>
@@ -26454,7 +26454,7 @@
         <v>370556.0457987011</v>
       </c>
       <c r="O4" t="n">
-        <v>370943.1084624188</v>
+        <v>370943.1084624187</v>
       </c>
       <c r="P4" t="n">
         <v>370943.1084624188</v>
@@ -26476,10 +26476,10 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774778</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.9569377478</v>
       </c>
       <c r="G5" t="n">
         <v>38672.33876582418</v>
@@ -26491,7 +26491,7 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
         <v>47449.6772201635</v>
@@ -26506,10 +26506,10 @@
         <v>40913.2955986873</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325561.6592999491</v>
+        <v>325557.1929157441</v>
       </c>
       <c r="C6" t="n">
-        <v>325561.6592999491</v>
+        <v>325557.1929157439</v>
       </c>
       <c r="D6" t="n">
-        <v>324964.2676477695</v>
+        <v>324961.074564921</v>
       </c>
       <c r="E6" t="n">
-        <v>57027.39022378309</v>
+        <v>56717.43242350957</v>
       </c>
       <c r="F6" t="n">
-        <v>336153.5054024972</v>
+        <v>335843.5476022236</v>
       </c>
       <c r="G6" t="n">
-        <v>268561.9602077913</v>
+        <v>268561.9602077912</v>
       </c>
       <c r="H6" t="n">
-        <v>364001.485626925</v>
+        <v>364001.4856269247</v>
       </c>
       <c r="I6" t="n">
-        <v>364001.4856269248</v>
+        <v>364001.4856269243</v>
       </c>
       <c r="J6" t="n">
-        <v>210926.9968847786</v>
+        <v>210926.9968847784</v>
       </c>
       <c r="K6" t="n">
-        <v>354423.2798916567</v>
+        <v>354423.2798916569</v>
       </c>
       <c r="L6" t="n">
-        <v>258461.3061837269</v>
+        <v>258461.306183727</v>
       </c>
       <c r="M6" t="n">
-        <v>315587.0225615072</v>
+        <v>315587.0225615071</v>
       </c>
       <c r="N6" t="n">
-        <v>361784.38885383</v>
+        <v>361784.3888538299</v>
       </c>
       <c r="O6" t="n">
-        <v>286258.5791006827</v>
+        <v>286258.5791006828</v>
       </c>
       <c r="P6" t="n">
         <v>358513.4939599264</v>
@@ -26796,22 +26796,22 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892757</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892758</v>
@@ -26820,16 +26820,16 @@
         <v>445.7594930492623</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500672</v>
+        <v>350.824693550067</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500672</v>
+        <v>350.8246935500671</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>119.2994067739165</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008443</v>
+        <v>94.18534375008446</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929175</v>
+        <v>63.13594470929178</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792336</v>
+        <v>185.2986836792337</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003844</v>
+        <v>90.36388418003838</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>119.2994067739165</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008443</v>
+        <v>94.18534375008446</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792336</v>
+        <v>185.2986836792337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D8" t="n">
-        <v>337.7721596422273</v>
+        <v>337.9020750954183</v>
       </c>
       <c r="E8" t="n">
         <v>371.4789120616362</v>
@@ -27880,7 +27880,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>17.12047468788361</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27932,10 +27932,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>184.3189018843524</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>155.9730654365651</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
@@ -27947,7 +27947,7 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>125.0193178399729</v>
       </c>
       <c r="I9" t="n">
         <v>114.855819447717</v>
@@ -27974,16 +27974,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.82978284919219</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
-        <v>212.6488107764739</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -27992,7 +27992,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.5053339369981</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28114,25 +28114,25 @@
         <v>178.1482641530679</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146301014</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>106.8192473728357</v>
+        <v>88.49454777923846</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
-        <v>84.01350995704919</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530679</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R11" t="n">
         <v>178.1482641530679</v>
@@ -28175,13 +28175,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>2.566550735272301</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
         <v>125.7355245857741</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,19 +28211,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>38.46295079411057</v>
       </c>
       <c r="S12" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530679</v>
+        <v>26.47299028624312</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530679</v>
+        <v>48.73013617764146</v>
       </c>
       <c r="V12" t="n">
         <v>178.1482641530679</v>
@@ -28251,43 +28251,43 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F13" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H13" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="I13" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J13" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="K13" t="n">
-        <v>178.1482641530679</v>
+        <v>109.9423655047982</v>
       </c>
       <c r="L13" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="M13" t="n">
-        <v>168.8611541576612</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O13" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P13" t="n">
-        <v>58.47859890024889</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2169859636892</v>
@@ -28351,7 +28351,7 @@
         <v>178.1482641530679</v>
       </c>
       <c r="K14" t="n">
-        <v>160.7168484597793</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,10 +28360,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.05802066359233038</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
         <v>178.1482641530679</v>
@@ -28415,19 +28415,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H15" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>90.05637248522665</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,22 +28448,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530679</v>
+        <v>26.47299028624312</v>
       </c>
       <c r="U15" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530679</v>
+        <v>94.0625428459127</v>
       </c>
       <c r="W15" t="n">
         <v>178.1482641530679</v>
@@ -28488,46 +28488,46 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
+        <v>138.9268822184467</v>
+      </c>
+      <c r="G16" t="n">
         <v>178.1482641530679</v>
       </c>
-      <c r="G16" t="n">
-        <v>168.7007749271525</v>
-      </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I16" t="n">
-        <v>178.1482641530679</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>168.4210680590589</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
-        <v>178.1482641530679</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L16" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="M16" t="n">
+        <v>25.21686539889346</v>
+      </c>
+      <c r="N16" t="n">
+        <v>134.9303506618637</v>
+      </c>
+      <c r="O16" t="n">
         <v>178.1482641530679</v>
       </c>
-      <c r="N16" t="n">
-        <v>16.52015736928137</v>
-      </c>
-      <c r="O16" t="n">
-        <v>37.47888399777682</v>
-      </c>
       <c r="P16" t="n">
-        <v>58.47859890024889</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530679</v>
@@ -28582,40 +28582,40 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
+        <v>241.009769215476</v>
+      </c>
+      <c r="J17" t="n">
+        <v>76.78161896459406</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.727192146300986</v>
+      </c>
+      <c r="L17" t="n">
+        <v>141.3051631366612</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>203.589905670336</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>89.71173703742198</v>
+      </c>
+      <c r="R17" t="n">
         <v>297.4476709269845</v>
-      </c>
-      <c r="J17" t="n">
-        <v>265.2795522838412</v>
-      </c>
-      <c r="K17" t="n">
-        <v>195.2251254655481</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>88.50732442066335</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>89.71173703742201</v>
-      </c>
-      <c r="R17" t="n">
-        <v>194.8815453823669</v>
       </c>
       <c r="S17" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998193</v>
+        <v>296.9457798188704</v>
       </c>
       <c r="U17" t="n">
         <v>250.1505414926498</v>
@@ -28646,10 +28646,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28661,10 +28661,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5907913200043</v>
@@ -28697,19 +28697,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764153</v>
+        <v>183.462728249866</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615515</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776444</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022345</v>
       </c>
       <c r="Y18" t="n">
-        <v>200.5235257148754</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L19" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024889</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28819,31 +28819,31 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269845</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459409</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146301014</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>5.656213468493576</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108881</v>
+        <v>15.09197235108878</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.347234870837</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R20" t="n">
         <v>297.4476709269845</v>
@@ -28855,7 +28855,7 @@
         <v>297.4476709269845</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269845</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28901,7 +28901,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390261</v>
+        <v>16.288008457967</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,28 +28922,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.092858000757218</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>26.47299028624317</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>48.73013617764151</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
-        <v>74.61994124780949</v>
+        <v>52.15098759615509</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022345</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28983,22 +28983,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L22" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024889</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29056,43 +29056,43 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
-        <v>241.0097692154761</v>
+        <v>258.3495113707069</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459409</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146301014</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3051631366613</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>155.895244379636</v>
+        <v>203.589905670336</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S23" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
+        <v>222.4658813998193</v>
+      </c>
+      <c r="U23" t="n">
         <v>297.4476709269845</v>
-      </c>
-      <c r="U23" t="n">
-        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269845</v>
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>152.3107713933115</v>
       </c>
       <c r="C24" t="n">
-        <v>80.53849872441602</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446044746268</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757102</v>
       </c>
       <c r="T24" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280694968886</v>
+        <v>48.7301361776414</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,7 +29180,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022339</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,22 +29220,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L25" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024889</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>64.62897008025089</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161062</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>122.9894063555751</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.484750524001</v>
@@ -29411,7 +29411,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>213.484750524001</v>
@@ -29420,7 +29420,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29439,10 +29439,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>213.484750524001</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>154.7354665834377</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.7007749271525</v>
@@ -29451,34 +29451,34 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I28" t="n">
-        <v>213.484750524001</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L28" t="n">
-        <v>32.1518162481789</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024889</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.484750524001</v>
+        <v>178.4555817493485</v>
       </c>
       <c r="R28" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
         <v>213.484750524001</v>
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>108.1491094332367</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>106.6350247211027</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161062</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
@@ -29651,7 +29651,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="W30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>213.484750524001</v>
@@ -29694,22 +29694,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L31" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N31" t="n">
-        <v>73.0858209045391</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O31" t="n">
+        <v>115.0442624355066</v>
+      </c>
+      <c r="P31" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="P31" t="n">
-        <v>58.47859890024889</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
@@ -29779,7 +29779,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
-        <v>194.1953356407512</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
         <v>214.3124603908652</v>
@@ -29791,7 +29791,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407509</v>
       </c>
       <c r="R32" t="n">
         <v>214.3124603908652</v>
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>60.01158683571599</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>106.7848032820748</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,19 +29870,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>214.3124603908652</v>
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>210.9564567815447</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29931,28 +29931,28 @@
         <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L34" t="n">
-        <v>32.1518162481789</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P34" t="n">
-        <v>187.1605451901005</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q34" t="n">
-        <v>214.3124603908652</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
-        <v>214.3124603908652</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
         <v>214.3124603908652</v>
@@ -30004,40 +30004,40 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J35" t="n">
-        <v>76.78161896459409</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146301014</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8450764277889</v>
+        <v>213.2680391874427</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.7821234236173</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8945117006675</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0591682562687</v>
+        <v>221.6131332193944</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71173703742201</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4658813998193</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U35" t="n">
         <v>272.0591682562687</v>
@@ -30080,13 +30080,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>54.55570069558107</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>135.4933155059841</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30165,25 +30165,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>120.239607582909</v>
+        <v>155.796109516756</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L37" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O37" t="n">
-        <v>73.03538593162386</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024889</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30241,13 +30241,13 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>241.0097692154761</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459409</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>267.1880015163298</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,28 +30256,28 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3720284248849</v>
       </c>
       <c r="O38" t="n">
-        <v>92.01759717710176</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
+        <v>252.5576059295516</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>89.71173703742198</v>
+      </c>
+      <c r="R38" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>272.0591682562687</v>
-      </c>
-      <c r="R38" t="n">
-        <v>194.8815453823669</v>
-      </c>
-      <c r="S38" t="n">
-        <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
         <v>222.4658813998193</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30317,13 +30317,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>109.8153181960721</v>
+        <v>203.6768415620181</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982948</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30393,7 +30393,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>204.2572768609995</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
         <v>165.8243976546666</v>
@@ -30405,22 +30405,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013919</v>
+        <v>102.586482073037</v>
       </c>
       <c r="L40" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024889</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30484,19 +30484,19 @@
         <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
+        <v>6.727192146300986</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>47.96910033376447</v>
+      </c>
+      <c r="N41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="L41" t="n">
+      <c r="O41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="M41" t="n">
-        <v>54.69629248006649</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>241.009769215476</v>
@@ -30551,7 +30551,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
         <v>125.7355245857741</v>
@@ -30560,7 +30560,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,25 +30581,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>160.5016378735292</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>150.5637525122988</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>204.4457085795033</v>
       </c>
       <c r="G43" t="n">
         <v>168.7007749271525</v>
@@ -30642,28 +30642,28 @@
         <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L43" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O43" t="n">
-        <v>140.5775184186754</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024889</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4299611556341</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S43" t="n">
         <v>235.4380443661806</v>
@@ -30718,28 +30718,28 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>241.009769215476</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>147.7565935091826</v>
       </c>
       <c r="O44" t="n">
-        <v>54.69629248006646</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
@@ -30748,7 +30748,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30797,7 +30797,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161062</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
@@ -30827,22 +30827,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.009769215476</v>
+        <v>196.076832406138</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>22.88817966837979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.1769368174836</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30879,25 +30879,25 @@
         <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L46" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024889</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>175.4876015595929</v>
       </c>
       <c r="R46" t="n">
         <v>241.009769215476</v>
@@ -30906,7 +30906,7 @@
         <v>235.4380443661806</v>
       </c>
       <c r="T46" t="n">
-        <v>223.761558450323</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U46" t="n">
         <v>241.009769215476</v>
@@ -30918,10 +30918,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="X46" t="n">
-        <v>241.009769215476</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>241.009769215476</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M13" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M16" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M19" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M22" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M25" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M28" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M31" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M34" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M37" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M40" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M43" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032856</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318169</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000169</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M46" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309189</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542645</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35152,7 +35152,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>3.199249640013477</v>
@@ -35255,19 +35255,19 @@
         <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>3.069987028295762</v>
       </c>
-      <c r="O9" t="n">
-        <v>3.199249640013477</v>
-      </c>
       <c r="P9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>188.4979333192471</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M11" t="n">
-        <v>188.4979333192471</v>
+        <v>170.1732337256498</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936129</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P11" t="n">
-        <v>68.92153760596038</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564587</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543461</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35498,13 +35498,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,34 +35547,34 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235718</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084289</v>
       </c>
       <c r="F13" t="n">
         <v>39.22138193462123</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.447489225915417</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32386649840132</v>
+        <v>12.3238664984013</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.29529608510284</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90865657015892</v>
+        <v>57.90865657015893</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138779</v>
+        <v>42.91238536560826</v>
       </c>
       <c r="L13" t="n">
         <v>145.996447904889</v>
       </c>
       <c r="M13" t="n">
-        <v>143.6442887587678</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>101.3666451884739</v>
       </c>
       <c r="K14" t="n">
-        <v>153.9896563134783</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258592</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641132</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514374</v>
+        <v>76.14680160873611</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936129</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0562918019791</v>
+        <v>163.0562918019792</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564593</v>
+        <v>88.43652711564596</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35735,13 +35735,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,46 +35784,46 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.96561390235723</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462129</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.447489225915474</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840136</v>
       </c>
       <c r="I16" t="n">
-        <v>13.2952960851029</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>48.18146047614992</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138779</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.996447904889</v>
+        <v>145.9964479048891</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541745</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>118.4101932925823</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.6693801552912</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937872</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,40 +35878,40 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150841</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258592</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641132</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936129</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P17" t="n">
-        <v>73.41535206957454</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.47989841905118</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35972,10 +35972,10 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
         <v>84.46981137181805</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150841</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,34 +36124,34 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258592</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641132</v>
+        <v>87.33489941490494</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514374</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936129</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>155.635497833415</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853628</v>
+        <v>69.9306763685363</v>
       </c>
       <c r="T20" t="n">
         <v>74.98178952716522</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433472</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36209,13 +36209,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>17.33974215523081</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,34 +36361,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258592</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641132</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514374</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936129</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P23" t="n">
-        <v>140.8032720285472</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716522</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464703</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L26" t="n">
         <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N26" t="n">
         <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
         <v>198.3927781729122</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163415</v>
+        <v>18.6032051416342</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36686,10 +36686,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O27" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.80860931177602</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.80858436499109</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63178245603597</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.3329342758221</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,10 +36771,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.26776456031178</v>
+        <v>51.23859578565933</v>
       </c>
       <c r="R28" t="n">
-        <v>10.05478936836689</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>206.7575583777</v>
       </c>
       <c r="L29" t="n">
-        <v>260.6775207065869</v>
+        <v>260.677520706587</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691447</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
         <v>248.0510481933623</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163412</v>
+        <v>18.60320514163414</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36923,10 +36923,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O30" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>56.56566353525774</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.0058665262242</v>
+        <v>77.56537843772979</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0061516237521</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262711</v>
+        <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445642</v>
@@ -37075,22 +37075,22 @@
         <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>275.8740215871625</v>
+        <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
         <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602265</v>
+        <v>248.8787580602266</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397764</v>
+        <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534432</v>
+        <v>104.4835986033289</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849836</v>
+        <v>19.43091500849838</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L33" t="n">
         <v>118.5181001296708</v>
@@ -37160,10 +37160,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>44.4992758095724</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>182.1606441426864</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>128.6819462898517</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.09547442717599</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.8824992352311</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37309,31 +37309,31 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>257.0378466103748</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641132</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4608093700288</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9671959051799</v>
+        <v>206.5211608683056</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390185</v>
+        <v>77.17762287390187</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
         <v>21.90862676361897</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L36" t="n">
         <v>118.5181001296708</v>
@@ -37397,10 +37397,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04939904079267</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4608093700288</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258592</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641132</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514374</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O38" t="n">
-        <v>126.5838948464631</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9671959051799</v>
+        <v>237.4656335784628</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188467</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.17762287390187</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L39" t="n">
         <v>118.5181001296708</v>
@@ -37634,10 +37634,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37689,19 +37689,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37780,31 +37780,31 @@
         <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>234.282577069175</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>288.202539398062</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M41" t="n">
-        <v>136.3749784264778</v>
+        <v>129.6477862801758</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514374</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936129</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
         <v>225.9177968643872</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.298032178054</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310917</v>
+        <v>46.12822383310919</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702785</v>
+        <v>13.49277465702786</v>
       </c>
       <c r="T41" t="n">
         <v>18.54388781565679</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296708</v>
@@ -37871,10 +37871,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>65.5188263610567</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.57980805984192</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.282577069175</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>288.202539398062</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641132</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514374</v>
+        <v>223.8453744543264</v>
       </c>
       <c r="O44" t="n">
-        <v>89.26259014942775</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643872</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.298032178054</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310917</v>
+        <v>46.12822383310919</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702785</v>
+        <v>13.49277465702786</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
@@ -38108,10 +38108,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.56001615251553</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>48.27061559590365</v>
       </c>
       <c r="R46" t="n">
         <v>37.57980805984192</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.24821076515303</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.09031380723351</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.86849640130762</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
